--- a/qasm_analysis_25_trap_transfer.xlsx
+++ b/qasm_analysis_25_trap_transfer.xlsx
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8225978220396727</v>
+        <v>0.1698171025303532</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8225978220396727</v>
+        <v>0.1698171025303532</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
         <v>194</v>
@@ -502,10 +502,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9196473726347113</v>
+        <v>0.5424796504655186</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9196473726347113</v>
+        <v>0.5424796504655186</v>
       </c>
       <c r="D3" t="n">
         <v>25</v>
@@ -527,10 +527,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9500393645866535</v>
+        <v>0.7170038108021736</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9500393645866535</v>
+        <v>0.7170038108021736</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7092338182631246</v>
+        <v>0.009443920072667884</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7092338182631246</v>
+        <v>0.005099293730101737</v>
       </c>
       <c r="D5" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E5" t="n">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="F5" t="n">
         <v>271</v>
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9888910438521609</v>
+        <v>0.9391719980261437</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9888910438521609</v>
+        <v>0.9391719980261437</v>
       </c>
       <c r="D6" t="n">
         <v>7</v>
@@ -602,16 +602,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3155204955322852</v>
+        <v>5.233867296621407e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3155204955322852</v>
+        <v>3.642386899911322e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>824</v>
+        <v>865</v>
       </c>
       <c r="E7" t="n">
-        <v>824</v>
+        <v>800</v>
       </c>
       <c r="F7" t="n">
         <v>898</v>
@@ -627,16 +627,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8054533891142766</v>
+        <v>0.1001174851394663</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8054533891142766</v>
+        <v>0.08855716142974797</v>
       </c>
       <c r="D8" t="n">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E8" t="n">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F8" t="n">
         <v>172</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6770278940676776</v>
+        <v>0.03547247095417511</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6770278940676776</v>
+        <v>0.031028515146612</v>
       </c>
       <c r="D9" t="n">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="E9" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F9" t="n">
         <v>306</v>
@@ -677,13 +677,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.870066004728103</v>
+        <v>0.3880699071844666</v>
       </c>
       <c r="C10" t="n">
-        <v>0.870066004728103</v>
+        <v>0.3763010113054139</v>
       </c>
       <c r="D10" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E10" t="n">
         <v>36</v>
@@ -692,7 +692,7 @@
         <v>128</v>
       </c>
       <c r="G10" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
@@ -702,22 +702,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1634842349051851</v>
+        <v>3.872273723693762e-09</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1634842349051851</v>
+        <v>2.136035664968034e-09</v>
       </c>
       <c r="D11" t="n">
-        <v>1064</v>
+        <v>1116</v>
       </c>
       <c r="E11" t="n">
-        <v>1064</v>
+        <v>1056</v>
       </c>
       <c r="F11" t="n">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="G11" t="n">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="12">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7200033059411529</v>
+        <v>0.07952597316640113</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7200033059411529</v>
+        <v>0.07952597316640113</v>
       </c>
       <c r="D12" t="n">
         <v>53</v>
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8881015955851915</v>
+        <v>0.5035560325870317</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8881015955851915</v>
+        <v>0.5035560325870316</v>
       </c>
       <c r="D13" t="n">
         <v>86</v>
@@ -777,16 +777,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9557067469580631</v>
+        <v>0.7688953153587761</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9557067469580631</v>
+        <v>0.7617814239549737</v>
       </c>
       <c r="D14" t="n">
         <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
         <v>36</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.963410910342797</v>
+        <v>0.7894068617535623</v>
       </c>
       <c r="C15" t="n">
-        <v>0.963410910342797</v>
+        <v>0.7868686898597245</v>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" t="n">
         <v>17</v>
@@ -817,7 +817,7 @@
         <v>32</v>
       </c>
       <c r="G15" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9192232557156448</v>
+        <v>0.6266129947137067</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9192232557156448</v>
+        <v>0.6266129947137067</v>
       </c>
       <c r="D16" t="n">
         <v>62</v>
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9349559527393196</v>
+        <v>0.6448527714974646</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9349559527393196</v>
+        <v>0.6448527714974646</v>
       </c>
       <c r="D17" t="n">
         <v>4</v>

--- a/qasm_analysis_25_trap_transfer.xlsx
+++ b/qasm_analysis_25_trap_transfer.xlsx
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.009443920072667884</v>
+        <v>0.009594336034466857</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005099293730101737</v>
+        <v>0.004285694231455655</v>
       </c>
       <c r="D5" t="n">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E5" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F5" t="n">
         <v>271</v>
@@ -602,16 +602,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.233867296621407e-05</v>
+        <v>5.818923471113368e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>3.642386899911322e-05</v>
+        <v>4.027021161707994e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>865</v>
+        <v>847</v>
       </c>
       <c r="E7" t="n">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="F7" t="n">
         <v>898</v>
@@ -627,16 +627,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1001174851394663</v>
+        <v>0.1021858996297045</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08855716142974797</v>
+        <v>0.06999898112563477</v>
       </c>
       <c r="D8" t="n">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="E8" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F8" t="n">
         <v>172</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03547247095417511</v>
+        <v>0.03647555862825082</v>
       </c>
       <c r="C9" t="n">
-        <v>0.031028515146612</v>
+        <v>0.03172848980237667</v>
       </c>
       <c r="D9" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E9" t="n">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F9" t="n">
         <v>306</v>
@@ -677,13 +677,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3880699071844666</v>
+        <v>0.3970927852420563</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3763010113054139</v>
+        <v>0.3077348137538805</v>
       </c>
       <c r="D10" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="E10" t="n">
         <v>36</v>
@@ -692,7 +692,7 @@
         <v>128</v>
       </c>
       <c r="G10" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
@@ -702,19 +702,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.872273723693762e-09</v>
+        <v>4.352353397380385e-09</v>
       </c>
       <c r="C11" t="n">
-        <v>2.136035664968034e-09</v>
+        <v>2.165762026323673e-09</v>
       </c>
       <c r="D11" t="n">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E11" t="n">
-        <v>1056</v>
+        <v>1043</v>
       </c>
       <c r="F11" t="n">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="G11" t="n">
         <v>1480</v>
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5035560325870317</v>
+        <v>0.507471706605126</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5035560325870316</v>
+        <v>0.5004452583181059</v>
       </c>
       <c r="D13" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E13" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F13" t="n">
         <v>92</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7894068617535623</v>
+        <v>0.7894068617535624</v>
       </c>
       <c r="C15" t="n">
         <v>0.7868686898597245</v>
